--- a/2-2. DB/과제/8주차/201844050-01.xlsx
+++ b/2-2. DB/과제/8주차/201844050-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School_datas\2-2. DB\수업자료(ppt_pdf)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School_datas\2-2. DB\과제\8주차\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E879B6-274A-4D7E-8CF0-B07006B0ED18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0806254A-FD38-4F52-9A01-9E24C3EE3F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{CB2DF08A-81B1-4C6B-AA5D-9E471F8E401C}"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="13035" windowHeight="9465" xr2:uid="{CB2DF08A-81B1-4C6B-AA5D-9E471F8E401C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,8 +1106,8 @@
   <dimension ref="A1:E163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="5" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2768,10 +2768,10 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="B150" s="11"/>
-      <c r="C150" s="5">
-        <v>1</v>
-      </c>
+      <c r="B150" s="11">
+        <v>1</v>
+      </c>
+      <c r="C150" s="5"/>
       <c r="D150" s="9"/>
       <c r="E150" s="7"/>
     </row>
